--- a/data/Ward49.xlsx
+++ b/data/Ward49.xlsx
@@ -79,13 +79,13 @@
     <t>New Field</t>
   </si>
   <si>
-    <t>Hartigan (David) Beach</t>
-  </si>
-  <si>
-    <t>Howard (Ure) Beach</t>
-  </si>
-  <si>
-    <t>Griffin (Marion Mahony) Beach</t>
+    <t xml:space="preserve">Hartigan (David) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howard (Ure) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin (Marion Mahony) </t>
   </si>
   <si>
     <t>Langdon (Mary Margaret)</t>
@@ -94,19 +94,19 @@
     <t>Lazarus (Emma)</t>
   </si>
   <si>
-    <t>Leone (Sam) Beach</t>
+    <t xml:space="preserve">Leone (Sam) </t>
   </si>
   <si>
     <t>Loyola</t>
   </si>
   <si>
-    <t>Columbia Beach</t>
+    <t xml:space="preserve">Columbia </t>
   </si>
   <si>
     <t>Matanky (Eugene)</t>
   </si>
   <si>
-    <t>Fargo (James) Beach</t>
+    <t xml:space="preserve">Fargo (James) </t>
   </si>
   <si>
     <t>Goldberg (Louis)</t>
@@ -121,16 +121,16 @@
     <t>Pottawattomie</t>
   </si>
   <si>
-    <t>Juneway Terr. Beach</t>
-  </si>
-  <si>
-    <t>Prinz (Tobey) Beach</t>
-  </si>
-  <si>
-    <t>North Shore Beach</t>
-  </si>
-  <si>
-    <t>Rogers (Phillip) Beach</t>
+    <t xml:space="preserve">Juneway Terr. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prinz (Tobey) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Shore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rogers (Phillip) </t>
   </si>
   <si>
     <t>Touhy (Patrick)</t>
